--- a/src/analysis/data.xlsx
+++ b/src/analysis/data.xlsx
@@ -2310,6 +2310,12 @@
       <c r="B34" t="n">
         <v>132.0153532028198</v>
       </c>
+      <c r="E34" t="n">
+        <v>544</v>
+      </c>
+      <c r="F34" t="n">
+        <v>188.2504312992096</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2318,6 +2324,12 @@
       <c r="B35" t="n">
         <v>143.5624964237213</v>
       </c>
+      <c r="E35" t="n">
+        <v>560</v>
+      </c>
+      <c r="F35" t="n">
+        <v>203.0354204177856</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2326,6 +2338,12 @@
       <c r="B36" t="n">
         <v>156.1405398845673</v>
       </c>
+      <c r="E36" t="n">
+        <v>576</v>
+      </c>
+      <c r="F36" t="n">
+        <v>222.2388656139374</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2334,6 +2352,12 @@
       <c r="B37" t="n">
         <v>168.1260762214661</v>
       </c>
+      <c r="E37" t="n">
+        <v>592</v>
+      </c>
+      <c r="F37" t="n">
+        <v>243.7994420528412</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2342,6 +2366,12 @@
       <c r="B38" t="n">
         <v>181.1093046665192</v>
       </c>
+      <c r="E38" t="n">
+        <v>608</v>
+      </c>
+      <c r="F38" t="n">
+        <v>263.4668972492218</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2350,6 +2380,12 @@
       <c r="B39" t="n">
         <v>197.3438427448273</v>
       </c>
+      <c r="E39" t="n">
+        <v>624</v>
+      </c>
+      <c r="F39" t="n">
+        <v>281.9655511379242</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2357,6 +2393,12 @@
       </c>
       <c r="B40" t="n">
         <v>212.0945727825165</v>
+      </c>
+      <c r="E40" t="n">
+        <v>640</v>
+      </c>
+      <c r="F40" t="n">
+        <v>309.0589036941528</v>
       </c>
     </row>
     <row r="41">
@@ -3561,7 +3603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3574,10 +3616,98 @@
         <v>256</v>
       </c>
       <c r="B1" t="n">
-        <v>15.73908543586731</v>
+        <v>15.90312194824219</v>
       </c>
       <c r="C1" t="n">
-        <v>19.1053249835968</v>
+        <v>18.5617344379425</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>384</v>
+      </c>
+      <c r="B2" t="n">
+        <v>23.71725797653198</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28.71054148674011</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>512</v>
+      </c>
+      <c r="B3" t="n">
+        <v>29.94328188896179</v>
+      </c>
+      <c r="C3" t="n">
+        <v>38.28416991233826</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>640</v>
+      </c>
+      <c r="B4" t="n">
+        <v>36.8754198551178</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48.58862733840942</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>768</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43.91392159461975</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57.62200665473938</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>896</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50.6889476776123</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67.83191323280334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B7" t="n">
+        <v>58.27482581138611</v>
+      </c>
+      <c r="C7" t="n">
+        <v>78.2992582321167</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B8" t="n">
+        <v>64.86825966835022</v>
+      </c>
+      <c r="C8" t="n">
+        <v>87.17176914215088</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B9" t="n">
+        <v>71.98883271217346</v>
+      </c>
+      <c r="C9" t="n">
+        <v>97.85724830627441</v>
       </c>
     </row>
   </sheetData>
